--- a/Finflux Automation Excels/Client/5044-CompondingPenalityCharge-MoraoriumOnPrinciple2-WaiveInterest.xlsx
+++ b/Finflux Automation Excels/Client/5044-CompondingPenalityCharge-MoraoriumOnPrinciple2-WaiveInterest.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
   <si>
     <t>clickonmorebutton</t>
   </si>
@@ -184,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +241,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -287,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -319,6 +326,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -690,7 +698,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +743,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>309.63</v>
+        <v>309.64</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
@@ -747,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="10">
-        <v>258.62</v>
+        <v>258.63</v>
       </c>
       <c r="F3" s="10">
         <v>219.41</v>
@@ -1020,7 +1028,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,13 +1365,13 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11">
-        <v>1006.28</v>
+        <v>1006.27</v>
       </c>
       <c r="G8" s="10">
-        <v>979.46</v>
+        <v>979.47</v>
       </c>
       <c r="H8" s="10">
-        <v>48.77</v>
+        <v>48.78</v>
       </c>
       <c r="I8" s="10">
         <v>0</v>
@@ -1404,7 +1412,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10">
-        <v>979.46</v>
+        <v>979.47</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
@@ -1419,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="10">
-        <v>989.11</v>
+        <v>989.12</v>
       </c>
       <c r="L9" s="10">
         <v>0</v>
@@ -1435,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="10">
-        <v>989.11</v>
+        <v>989.12</v>
       </c>
     </row>
   </sheetData>
@@ -1445,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1490,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>3840</v>
+        <v>347</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>33</v>
@@ -1494,19 +1502,19 @@
         <v>34</v>
       </c>
       <c r="E2" s="10">
-        <v>52.93</v>
+        <v>52.94</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="11">
-        <v>5253.29</v>
+        <v>5253.66</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>3839</v>
+        <v>346</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>33</v>
@@ -1518,7 +1526,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="10">
-        <v>52.93</v>
+        <v>0.01</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -1530,31 +1538,31 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>3838</v>
+        <v>342</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="12">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="10">
-        <v>47.38</v>
+        <v>52.93</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="11">
-        <v>5200.3599999999997</v>
+      <c r="J4" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>3837</v>
+        <v>341</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>33</v>
@@ -1563,7 +1571,7 @@
         <v>42063</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="10">
         <v>47.38</v>
@@ -1572,25 +1580,25 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="10">
-        <v>0</v>
+      <c r="J5" s="11">
+        <v>5200.72</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>3841</v>
+        <v>340</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="12">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="10">
-        <v>51.92</v>
+        <v>47.38</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1602,7 +1610,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>3836</v>
+        <v>345</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>33</v>
@@ -1614,55 +1622,55 @@
         <v>34</v>
       </c>
       <c r="E7" s="10">
-        <v>51.92</v>
+        <v>52.28</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11">
-        <v>5152.9799999999996</v>
+        <v>5153.34</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>3834</v>
+        <v>344</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="12">
-        <v>42004</v>
+        <v>42035</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="10">
-        <v>51.75</v>
+        <v>0.36</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="11">
-        <v>5101.0600000000004</v>
+      <c r="J8" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>3833</v>
+        <v>338</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="12">
-        <v>42004</v>
+        <v>42035</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="10">
-        <v>51.75</v>
+        <v>51.92</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -1674,43 +1682,43 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>3832</v>
+        <v>337</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="12">
-        <v>41973</v>
+        <v>42004</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="10">
-        <v>49.31</v>
+        <v>51.75</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="11">
-        <v>5049.3100000000004</v>
+        <v>5101.0600000000004</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>3831</v>
+        <v>336</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="12">
-        <v>41973</v>
+        <v>42004</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="10">
-        <v>49.31</v>
+        <v>51.75</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1722,97 +1730,145 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>3830</v>
+        <v>335</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="12">
-        <v>41948</v>
+        <v>41973</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" s="10">
-        <v>51.01</v>
+        <v>49.31</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="9">
-        <v>5000</v>
+      <c r="J12" s="11">
+        <v>5049.3100000000004</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>3786</v>
+        <v>334</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="12">
-        <v>41943</v>
+        <v>41973</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="10">
-        <v>44.38</v>
+        <v>49.31</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="11">
-        <v>5044.38</v>
+      <c r="J13" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>3785</v>
+        <v>333</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="12">
-        <v>41943</v>
+        <v>41948</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="10">
-        <v>44.38</v>
+        <v>51.01</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="10">
-        <v>0</v>
+      <c r="J14" s="9">
+        <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>3784</v>
+        <v>308</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="12">
+        <v>41943</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="10">
+        <v>44.38</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11">
+        <v>5044.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>307</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="12">
+        <v>41943</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="10">
+        <v>44.38</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>306</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="12">
         <v>41917</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E17" s="9">
         <v>5000</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9">
         <v>5000</v>
       </c>
     </row>
@@ -1826,12 +1882,14 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="15"/>
+    <col min="6" max="6" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1880,7 +1938,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>44</v>
       </c>
@@ -1911,7 +1969,7 @@
       </c>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>44</v>
       </c>
@@ -1944,8 +2002,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/40/waivecharge/200" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/40/waivecharge/200"/>
-    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/40/waivecharge/201" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/40/waivecharge/201"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/10/waivecharge/47" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/10/waivecharge/47"/>
+    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/10/waivecharge/48" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/10/waivecharge/48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
